--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_6_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_6_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85550.36893715287</v>
+        <v>85550.36893715292</v>
       </c>
     </row>
     <row r="7">
@@ -26338,19 +26340,19 @@
         <v>53049.64487562134</v>
       </c>
       <c r="K2" t="n">
-        <v>53049.64487562133</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="L2" t="n">
-        <v>53049.64487562133</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="M2" t="n">
-        <v>53049.64487562133</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="N2" t="n">
         <v>53049.64487562134</v>
       </c>
       <c r="O2" t="n">
-        <v>53049.64487562133</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="P2" t="n">
         <v>53049.64487562134</v>
@@ -26543,25 +26545,25 @@
         <v>21219.85795024855</v>
       </c>
       <c r="J6" t="n">
-        <v>21219.85795024854</v>
+        <v>21219.85795024855</v>
       </c>
       <c r="K6" t="n">
-        <v>21219.85795024853</v>
+        <v>21219.85795024855</v>
       </c>
       <c r="L6" t="n">
-        <v>21219.85795024854</v>
+        <v>21219.85795024855</v>
       </c>
       <c r="M6" t="n">
-        <v>21219.85795024853</v>
+        <v>21219.85795024855</v>
       </c>
       <c r="N6" t="n">
-        <v>21219.85795024854</v>
+        <v>21219.85795024855</v>
       </c>
       <c r="O6" t="n">
-        <v>21219.85795024853</v>
+        <v>21219.85795024855</v>
       </c>
       <c r="P6" t="n">
-        <v>21219.85795024854</v>
+        <v>21219.85795024855</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_6_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_6_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85550.36893715292</v>
+        <v>-40309.88390070219</v>
       </c>
     </row>
     <row r="7">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53049.64487562134</v>
+        <v>53049.64487562132</v>
       </c>
       <c r="C2" t="n">
-        <v>53049.64487562134</v>
+        <v>53049.64487562132</v>
       </c>
       <c r="D2" t="n">
-        <v>53049.64487562134</v>
+        <v>53049.64487562132</v>
       </c>
       <c r="E2" t="n">
         <v>53049.64487562134</v>
       </c>
       <c r="F2" t="n">
-        <v>53049.64487562134</v>
+        <v>53049.64487562133</v>
       </c>
       <c r="G2" t="n">
-        <v>53049.64487562134</v>
+        <v>53049.64487562133</v>
       </c>
       <c r="H2" t="n">
-        <v>53049.64487562134</v>
+        <v>53049.64487562132</v>
       </c>
       <c r="I2" t="n">
-        <v>53049.64487562134</v>
+        <v>53049.64487562133</v>
       </c>
       <c r="J2" t="n">
         <v>53049.64487562134</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12407.74204975145</v>
+        <v>-27450.76277756275</v>
       </c>
       <c r="C6" t="n">
-        <v>-12407.74204975145</v>
+        <v>-27450.76277756275</v>
       </c>
       <c r="D6" t="n">
-        <v>-12407.74204975145</v>
+        <v>-27450.76277756275</v>
       </c>
       <c r="E6" t="n">
-        <v>21219.85795024855</v>
+        <v>6176.837222437262</v>
       </c>
       <c r="F6" t="n">
-        <v>21219.85795024855</v>
+        <v>6176.837222437254</v>
       </c>
       <c r="G6" t="n">
-        <v>21219.85795024855</v>
+        <v>6176.837222437258</v>
       </c>
       <c r="H6" t="n">
-        <v>21219.85795024855</v>
+        <v>6176.837222437247</v>
       </c>
       <c r="I6" t="n">
-        <v>21219.85795024855</v>
+        <v>6176.837222437258</v>
       </c>
       <c r="J6" t="n">
-        <v>21219.85795024855</v>
+        <v>6176.837222437269</v>
       </c>
       <c r="K6" t="n">
-        <v>21219.85795024855</v>
+        <v>6176.837222437272</v>
       </c>
       <c r="L6" t="n">
-        <v>21219.85795024855</v>
+        <v>6176.837222437269</v>
       </c>
       <c r="M6" t="n">
-        <v>21219.85795024855</v>
+        <v>6176.837222437272</v>
       </c>
       <c r="N6" t="n">
-        <v>21219.85795024855</v>
+        <v>6176.837222437269</v>
       </c>
       <c r="O6" t="n">
-        <v>21219.85795024855</v>
+        <v>6176.837222437272</v>
       </c>
       <c r="P6" t="n">
-        <v>21219.85795024855</v>
+        <v>6176.837222437269</v>
       </c>
     </row>
   </sheetData>
